--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H2">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I2">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J2">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7345354003776809</v>
+        <v>0.114644</v>
       </c>
       <c r="N2">
-        <v>0.7345354003776809</v>
+        <v>0.343932</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.107929744556041</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1536053250846448</v>
       </c>
       <c r="Q2">
-        <v>85.08756447286046</v>
+        <v>14.21458887808267</v>
       </c>
       <c r="R2">
-        <v>85.08756447286046</v>
+        <v>127.931299902744</v>
       </c>
       <c r="S2">
-        <v>0.192725754497943</v>
+        <v>0.02109452526192997</v>
       </c>
       <c r="T2">
-        <v>0.192725754497943</v>
+        <v>0.03279200593447545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>197.799631374202</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H3">
-        <v>197.799631374202</v>
+        <v>371.966842</v>
       </c>
       <c r="I3">
-        <v>0.3290878670894614</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J3">
-        <v>0.3290878670894614</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7345354003776809</v>
+        <v>0.9475654999999999</v>
       </c>
       <c r="N3">
-        <v>0.7345354003776809</v>
+        <v>1.895131</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8920702554439589</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8463946749153552</v>
       </c>
       <c r="Q3">
-        <v>145.2908314260072</v>
+        <v>117.4876488743837</v>
       </c>
       <c r="R3">
-        <v>145.2908314260072</v>
+        <v>704.9258932463021</v>
       </c>
       <c r="S3">
-        <v>0.3290878670894614</v>
+        <v>0.1743522938582333</v>
       </c>
       <c r="T3">
-        <v>0.3290878670894614</v>
+        <v>0.1806902149221602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.0590918178804</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H4">
-        <v>68.0590918178804</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I4">
-        <v>0.113232877163558</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J4">
-        <v>0.113232877163558</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.7345354003776809</v>
+        <v>0.114644</v>
       </c>
       <c r="N4">
-        <v>0.7345354003776809</v>
+        <v>0.343932</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.107929744556041</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1536053250846448</v>
       </c>
       <c r="Q4">
-        <v>49.99181225778813</v>
+        <v>24.21603735357333</v>
       </c>
       <c r="R4">
-        <v>49.99181225778813</v>
+        <v>217.94433618216</v>
       </c>
       <c r="S4">
-        <v>0.113232877163558</v>
+        <v>0.03593672782801545</v>
       </c>
       <c r="T4">
-        <v>0.113232877163558</v>
+        <v>0.05586460835545227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.5518471348649</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H5">
-        <v>60.5518471348649</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I5">
-        <v>0.100742747008672</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J5">
-        <v>0.100742747008672</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7345354003776809</v>
+        <v>0.9475654999999999</v>
       </c>
       <c r="N5">
-        <v>0.7345354003776809</v>
+        <v>1.895131</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8920702554439589</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8463946749153552</v>
       </c>
       <c r="Q5">
-        <v>44.47747527881612</v>
+        <v>200.1524854589633</v>
       </c>
       <c r="R5">
-        <v>44.47747527881612</v>
+        <v>1200.91491275378</v>
       </c>
       <c r="S5">
-        <v>0.100742747008672</v>
+        <v>0.2970273496451394</v>
       </c>
       <c r="T5">
-        <v>0.100742747008672</v>
+        <v>0.3078246603900672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H6">
+        <v>232.903919</v>
+      </c>
+      <c r="I6">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J6">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.114644</v>
+      </c>
+      <c r="N6">
+        <v>0.343932</v>
+      </c>
+      <c r="O6">
+        <v>0.107929744556041</v>
+      </c>
+      <c r="P6">
+        <v>0.1536053250846448</v>
+      </c>
+      <c r="Q6">
+        <v>8.900345629945333</v>
+      </c>
+      <c r="R6">
+        <v>80.103110669508</v>
+      </c>
+      <c r="S6">
+        <v>0.01320816010516332</v>
+      </c>
+      <c r="T6">
+        <v>0.02053243953935709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>158.804972836137</v>
-      </c>
-      <c r="H6">
-        <v>158.804972836137</v>
-      </c>
-      <c r="I6">
-        <v>0.2642107542403656</v>
-      </c>
-      <c r="J6">
-        <v>0.2642107542403656</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.7345354003776809</v>
-      </c>
-      <c r="N6">
-        <v>0.7345354003776809</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>116.6478743041586</v>
-      </c>
-      <c r="R6">
-        <v>116.6478743041586</v>
-      </c>
-      <c r="S6">
-        <v>0.2642107542403656</v>
-      </c>
-      <c r="T6">
-        <v>0.2642107542403656</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>77.63463966666666</v>
+      </c>
+      <c r="H7">
+        <v>232.903919</v>
+      </c>
+      <c r="I7">
+        <v>0.1223773868778609</v>
+      </c>
+      <c r="J7">
+        <v>0.1336701024397599</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9475654999999999</v>
+      </c>
+      <c r="N7">
+        <v>1.895131</v>
+      </c>
+      <c r="O7">
+        <v>0.8920702554439589</v>
+      </c>
+      <c r="P7">
+        <v>0.8463946749153552</v>
+      </c>
+      <c r="Q7">
+        <v>73.56390615306482</v>
+      </c>
+      <c r="R7">
+        <v>441.383436918389</v>
+      </c>
+      <c r="S7">
+        <v>0.1091692267726975</v>
+      </c>
+      <c r="T7">
+        <v>0.1131376629004028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H8">
+        <v>182.257702</v>
+      </c>
+      <c r="I8">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J8">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.114644</v>
+      </c>
+      <c r="N8">
+        <v>0.343932</v>
+      </c>
+      <c r="O8">
+        <v>0.107929744556041</v>
+      </c>
+      <c r="P8">
+        <v>0.1536053250846448</v>
+      </c>
+      <c r="Q8">
+        <v>6.964917329362667</v>
+      </c>
+      <c r="R8">
+        <v>62.684255964264</v>
+      </c>
+      <c r="S8">
+        <v>0.01033597424530734</v>
+      </c>
+      <c r="T8">
+        <v>0.0160675494983713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>60.75256733333333</v>
+      </c>
+      <c r="H9">
+        <v>182.257702</v>
+      </c>
+      <c r="I9">
+        <v>0.09576576214298858</v>
+      </c>
+      <c r="J9">
+        <v>0.1046028156219013</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9475654999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.895131</v>
+      </c>
+      <c r="O9">
+        <v>0.8920702554439589</v>
+      </c>
+      <c r="P9">
+        <v>0.8463946749153552</v>
+      </c>
+      <c r="Q9">
+        <v>57.56703684149366</v>
+      </c>
+      <c r="R9">
+        <v>345.402221048962</v>
+      </c>
+      <c r="S9">
+        <v>0.08542978789768124</v>
+      </c>
+      <c r="T9">
+        <v>0.08853526612352995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>160.7828525</v>
+      </c>
+      <c r="H10">
+        <v>321.565705</v>
+      </c>
+      <c r="I10">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J10">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.114644</v>
+      </c>
+      <c r="N10">
+        <v>0.343932</v>
+      </c>
+      <c r="O10">
+        <v>0.107929744556041</v>
+      </c>
+      <c r="P10">
+        <v>0.1536053250846448</v>
+      </c>
+      <c r="Q10">
+        <v>18.43278934201</v>
+      </c>
+      <c r="R10">
+        <v>110.59673605206</v>
+      </c>
+      <c r="S10">
+        <v>0.02735435711562491</v>
+      </c>
+      <c r="T10">
+        <v>0.02834872175698871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>160.7828525</v>
+      </c>
+      <c r="H11">
+        <v>321.565705</v>
+      </c>
+      <c r="I11">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J11">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9475654999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.895131</v>
+      </c>
+      <c r="O11">
+        <v>0.8920702554439589</v>
+      </c>
+      <c r="P11">
+        <v>0.8463946749153552</v>
+      </c>
+      <c r="Q11">
+        <v>152.3522840205887</v>
+      </c>
+      <c r="R11">
+        <v>609.409136082355</v>
+      </c>
+      <c r="S11">
+        <v>0.2260915972702075</v>
+      </c>
+      <c r="T11">
+        <v>0.1562068705791952</v>
       </c>
     </row>
   </sheetData>
